--- a/Documentacion/Analisis/dbhelpdesk.xlsx
+++ b/Documentacion/Analisis/dbhelpdesk.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\HelpDesk\Analisis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\HelpDesk\Documentacion\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12435" windowHeight="4545" tabRatio="519" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12435" windowHeight="4545" tabRatio="519" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Integrantes" sheetId="11" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="234">
   <si>
     <t>idarea</t>
   </si>
@@ -736,6 +736,9 @@
   </si>
   <si>
     <t>01/11/18</t>
+  </si>
+  <si>
+    <t>INSERT INTO AREA (DESCRIPCION,FECHACREA,FLGELIMINADO) VALUES (</t>
   </si>
 </sst>
 </file>
@@ -845,7 +848,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -871,11 +874,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1762,7 +1775,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1799,7 +1812,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E4" sqref="A3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1833,258 +1846,263 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="89.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E2" s="15" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="14">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C3" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D2" s="11">
-        <v>0</v>
-      </c>
-      <c r="E2" s="12" t="str">
-        <f>CONCATENATE("insert into area (descripcion,fechacrea,flgeliminado) values (",B2,",",C2,",",D2,");")</f>
+      <c r="D3" s="14">
+        <v>0</v>
+      </c>
+      <c r="E3" s="17" t="str">
+        <f t="shared" ref="E3:E14" si="0">CONCATENATE("insert into area (descripcion,fechacrea,flgeliminado) values (",B3,",",C3,",",D3,");")</f>
         <v>insert into area (descripcion,fechacrea,flgeliminado) values (Administración,02/01/18,0);</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="11">
+    <row r="4" spans="1:5">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C4" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D3" s="11">
-        <v>0</v>
-      </c>
-      <c r="E3" s="12" t="str">
-        <f t="shared" ref="E3:E13" si="0">CONCATENATE("insert into area (descripcion,fechacrea,flgeliminado) values (",B3,",",C3,",",D3,");")</f>
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17" t="str">
+        <f t="shared" si="0"/>
         <v>insert into area (descripcion,fechacrea,flgeliminado) values (RRHH,02/01/18,0);</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="11">
+    <row r="5" spans="1:5">
+      <c r="A5" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C5" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D4" s="11">
-        <v>0</v>
-      </c>
-      <c r="E4" s="12" t="str">
+      <c r="D5" s="14">
+        <v>0</v>
+      </c>
+      <c r="E5" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into area (descripcion,fechacrea,flgeliminado) values (Operaciones,02/01/18,0);</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="11">
+    <row r="6" spans="1:5">
+      <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C6" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D5" s="11">
-        <v>0</v>
-      </c>
-      <c r="E5" s="12" t="str">
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into area (descripcion,fechacrea,flgeliminado) values (Dirección General,02/01/18,0);</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="11">
+    <row r="7" spans="1:5">
+      <c r="A7" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C7" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D6" s="11">
-        <v>0</v>
-      </c>
-      <c r="E6" s="12" t="str">
+      <c r="D7" s="14">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into area (descripcion,fechacrea,flgeliminado) values (Auxiliar Administrativo,02/01/18,0);</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="11">
+    <row r="8" spans="1:5">
+      <c r="A8" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B8" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C8" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D7" s="11">
-        <v>0</v>
-      </c>
-      <c r="E7" s="12" t="str">
+      <c r="D8" s="14">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into area (descripcion,fechacrea,flgeliminado) values (Finanzas y Contabilidad,02/01/18,0);</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="11">
+    <row r="9" spans="1:5">
+      <c r="A9" s="14">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B9" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C9" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D8" s="11">
-        <v>0</v>
-      </c>
-      <c r="E8" s="12" t="str">
+      <c r="D9" s="14">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into area (descripcion,fechacrea,flgeliminado) values (Publicidad y Mercadotecnia,02/01/18,0);</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="11">
+    <row r="10" spans="1:5">
+      <c r="A10" s="14">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B10" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="11">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12" t="str">
+      <c r="D10" s="14">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into area (descripcion,fechacrea,flgeliminado) values (Informática,02/01/18,0);</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="11">
+    <row r="11" spans="1:5">
+      <c r="A11" s="14">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B11" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C11" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D10" s="11">
-        <v>0</v>
-      </c>
-      <c r="E10" s="12" t="str">
+      <c r="D11" s="14">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into area (descripcion,fechacrea,flgeliminado) values ( Ventas,02/01/18,0);</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="11">
+    <row r="12" spans="1:5">
+      <c r="A12" s="14">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B12" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C12" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D11" s="11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="12" t="str">
+      <c r="D12" s="14">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into area (descripcion,fechacrea,flgeliminado) values (Produccion,02/01/18,0);</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="11">
+    <row r="13" spans="1:5">
+      <c r="A13" s="14">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B13" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D12" s="11">
-        <v>0</v>
-      </c>
-      <c r="E12" s="12" t="str">
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="E13" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into area (descripcion,fechacrea,flgeliminado) values (Logistica,02/01/18,0);</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="11">
+    <row r="14" spans="1:5">
+      <c r="A14" s="14">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B14" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C14" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D13" s="11">
-        <v>0</v>
-      </c>
-      <c r="E13" s="12" t="str">
+      <c r="D14" s="14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into area (descripcion,fechacrea,flgeliminado) values (TI,02/01/18,0);</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="C14" s="14"/>
-    </row>
     <row r="15" spans="1:5">
-      <c r="C15" s="14"/>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="C16" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2096,8 +2114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2129,13 +2147,13 @@
       <c r="B2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>232</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>231</v>
       </c>
     </row>
@@ -2146,13 +2164,13 @@
       <c r="B3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>232</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>231</v>
       </c>
     </row>
@@ -2163,13 +2181,13 @@
       <c r="B4" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>232</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>231</v>
       </c>
     </row>
@@ -2182,8 +2200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3360,7 +3378,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3398,7 +3416,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3430,7 +3448,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="J18" sqref="G16:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
